--- a/src/test/resources/testdata/HrmsTestData.xlsx
+++ b/src/test/resources/testdata/HrmsTestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulen\eclipse-workspace\HrmsFramework\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gulen\eclipse-workspace\HY__Y__GoogleFrameworkMaven\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1808299E-6795-476C-B006-2BFDB450AD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3F7C6D-BEE7-4C30-B1C4-F806CAE7A007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="AddEmployee" sheetId="2" r:id="rId2"/>
+    <sheet name="famous name" sheetId="3" r:id="rId2"/>
+    <sheet name="AddEmployee" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>FirstName</t>
   </si>
@@ -89,6 +90,21 @@
   </si>
   <si>
     <t>admin123_@H</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Brad  Pitt</t>
+  </si>
+  <si>
+    <t>Angelina Jolie</t>
+  </si>
+  <si>
+    <t>Yunus Yakut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Damon </t>
   </si>
 </sst>
 </file>
@@ -152,12 +168,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -518,6 +537,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966D9647-8C20-4304-A705-8DB91AE6B556}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2195B679-85ED-4EF8-879C-4525BB4B020A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
